--- a/Cognizant.Toyota.TecPMO.Web.UI/template/Accolades.xlsx
+++ b/Cognizant.Toyota.TecPMO.Web.UI/template/Accolades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share\20170411\TecPMO\Cognizant.Toyota.TecPMO.Web.UI\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\582461\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ProjectName</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>ImageURL</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
   </si>
 </sst>
 </file>
@@ -365,45 +368,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
